--- a/data/TC002.xlsx
+++ b/data/TC002.xlsx
@@ -18,26 +18,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>MODEL NAME</t>
+    <t>EMAIL</t>
   </si>
   <si>
-    <t>Women's Brooks Glycerin 16</t>
+    <t>PASSWORD</t>
   </si>
   <si>
-    <t>xpath</t>
+    <t>u.arjunkumar@gmail.com</t>
   </si>
   <si>
-    <t>//*[contains(@class,'search2 ui-autocomplete-input')]</t>
+    <t>Hitman12$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,19 +83,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,21 +413,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
